--- a/z0bug_odoo/data/sale_order_line.xlsx
+++ b/z0bug_odoo/data/sale_order_line.xlsx
@@ -538,6 +538,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -621,13 +622,13 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.83"/>
@@ -636,7 +637,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,6 +1393,9 @@
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>15</v>

--- a/z0bug_odoo/data/sale_order_line.xlsx
+++ b/z0bug_odoo/data/sale_order_line.xlsx
@@ -642,21 +642,21 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
